--- a/experiments/dbscan-ajk/simcse/0.2/prediction.xlsx
+++ b/experiments/dbscan-ajk/simcse/0.2/prediction.xlsx
@@ -468,137 +468,137 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,57 +608,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,17 +668,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,87 +718,87 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,37 +808,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,17 +878,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,117 +908,117 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,17 +1038,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,37 +1058,37 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,17 +1108,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,27 +1138,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,17 +1168,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,77 +1188,77 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,207 +1328,207 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,17 +1548,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,67 +1568,67 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,57 +1638,57 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,17 +1698,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,107 +1738,107 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,57 +1858,57 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,4341 +1928,4341 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>37</v>
+        <v>108</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>39</v>
+        <v>113</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>39</v>
+        <v>113</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>40</v>
+        <v>114</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>41</v>
+        <v>115</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>42</v>
+        <v>115</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>43</v>
+        <v>116</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>44</v>
+        <v>118</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>46</v>
+        <v>119</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>51</v>
+        <v>125</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>54</v>
+        <v>125</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>56</v>
+        <v>126</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>56</v>
+        <v>127</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>56</v>
+        <v>128</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>56</v>
+        <v>129</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>56</v>
+        <v>131</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>56</v>
+        <v>132</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>56</v>
+        <v>133</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>56</v>
+        <v>134</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>56</v>
+        <v>135</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>57</v>
+        <v>136</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>61</v>
+        <v>120</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>69</v>
+        <v>140</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>73</v>
+        <v>145</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>74</v>
+        <v>142</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>75</v>
+        <v>143</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>77</v>
+        <v>144</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>81</v>
+        <v>146</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>94</v>
+        <v>151</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>96</v>
+        <v>151</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>99</v>
+        <v>150</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>99</v>
+        <v>150</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>101</v>
+        <v>154</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>106</v>
+        <v>156</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>106</v>
+        <v>157</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>106</v>
+        <v>156</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>109</v>
+        <v>162</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>110</v>
+        <v>163</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>113</v>
+        <v>164</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>114</v>
+        <v>165</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>117</v>
+        <v>168</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>118</v>
+        <v>170</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>122</v>
+        <v>171</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>122</v>
+        <v>173</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>125</v>
+        <v>174</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>125</v>
+        <v>56</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>125</v>
+        <v>56</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>125</v>
+        <v>56</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>125</v>
+        <v>177</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>126</v>
+        <v>35</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>127</v>
+        <v>35</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>127</v>
+        <v>178</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>129</v>
+        <v>35</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>132</v>
+        <v>179</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>133</v>
+        <v>180</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>135</v>
+        <v>183</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>146</v>
+        <v>187</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>150</v>
+        <v>189</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>151</v>
+        <v>192</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>154</v>
+        <v>194</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>155</v>
+        <v>195</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>155</v>
+        <v>197</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>155</v>
+        <v>198</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>159</v>
+        <v>106</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>159</v>
+        <v>106</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>161</v>
+        <v>106</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>163</v>
+        <v>201</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>166</v>
+        <v>202</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>168</v>
+        <v>203</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>168</v>
+        <v>215</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>168</v>
+        <v>217</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>168</v>
+        <v>218</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>169</v>
+        <v>219</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>170</v>
+        <v>222</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>171</v>
+        <v>223</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>172</v>
+        <v>224</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>176</v>
+        <v>106</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>177</v>
+        <v>208</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>178</v>
+        <v>211</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>179</v>
+        <v>56</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>182</v>
+        <v>209</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>191</v>
+        <v>122</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>192</v>
+        <v>122</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>193</v>
+        <v>122</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>197</v>
+        <v>228</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>198</v>
+        <v>229</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>245</v>
+        <v>99</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>246</v>
+        <v>100</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>247</v>
+        <v>56</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>248</v>
+        <v>35</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>252</v>
+        <v>47</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>254</v>
+        <v>209</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>256</v>
+        <v>209</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>258</v>
+        <v>209</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>259</v>
+        <v>209</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
